--- a/output/xls/student.xlsx
+++ b/output/xls/student.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>1</t>
+    <t>3</t>
   </si>
   <si>
-    <t>张三</t>
+    <t>王五</t>
   </si>
   <si>
     <t>2</t>
@@ -26,10 +26,10 @@
     <t>李四</t>
   </si>
   <si>
-    <t>3</t>
+    <t>1</t>
   </si>
   <si>
-    <t>王五</t>
+    <t>张三</t>
   </si>
 </sst>
 </file>
@@ -88,13 +88,13 @@
         <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>60.0</v>
+        <v>150.0</v>
       </c>
       <c r="D1" t="n">
-        <v>66.0</v>
+        <v>120.0</v>
       </c>
       <c r="E1" t="n">
-        <v>68.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="2">
@@ -122,13 +122,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>150.0</v>
+        <v>60.0</v>
       </c>
       <c r="D3" t="n">
-        <v>120.0</v>
+        <v>66.0</v>
       </c>
       <c r="E3" t="n">
-        <v>100.0</v>
+        <v>68.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/xls/student.xlsx
+++ b/output/xls/student.xlsx
@@ -17,19 +17,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>王五</t>
+    <t>鐜嬩簲</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>李四</t>
+    <t>鏉庡洓</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>张三</t>
+    <t>寮犱笁</t>
   </si>
 </sst>
 </file>

--- a/output/xls/student.xlsx
+++ b/output/xls/student.xlsx
@@ -17,19 +17,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>鐜嬩簲</t>
+    <t>王五</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>鏉庡洓</t>
+    <t>李四</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>寮犱笁</t>
+    <t>张三</t>
   </si>
 </sst>
 </file>
